--- a/VerwaltungKST1127/Chargenbegleitblatt.xlsx
+++ b/VerwaltungKST1127/Chargenbegleitblatt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herburgerm\source\repos\Verwaltung\VerwaltungKST1127\VerwaltungKST1127\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Kst_127\Programmierung\Programierung Markus\VerwaltungKST1127\VerwaltungKST1127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98516606-8097-468F-BBCA-5C163E8FA97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B6DD71-E96C-44A2-B14B-A7BAA4C75235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22845" yWindow="1650" windowWidth="23685" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>Artikel:</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Projektnr.:</t>
   </si>
   <si>
-    <t>Chargenbegleitblatt</t>
-  </si>
-  <si>
     <t>Belag</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Auflegen</t>
   </si>
   <si>
-    <t>Abnehmen</t>
-  </si>
-  <si>
     <t>Stk.</t>
   </si>
   <si>
@@ -84,15 +78,9 @@
     <t>Bemerkung</t>
   </si>
   <si>
-    <t>Dokument LF-00xxx</t>
-  </si>
-  <si>
     <t>Version 1.0</t>
   </si>
   <si>
-    <t>Erstellt am 16.10.2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kontrollbericht                         </t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>Sonstige</t>
   </si>
   <si>
-    <t>XXXXXXXXXXX</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -154,6 +139,24 @@
   </si>
   <si>
     <t>B150-P1 muss passen -&gt; Bitte beim Prozess dabei bleiben</t>
+  </si>
+  <si>
+    <t>Chargenbegleitblatt Prototyp</t>
+  </si>
+  <si>
+    <t>Auflegen von</t>
+  </si>
+  <si>
+    <t>Dokument LF-00263</t>
+  </si>
+  <si>
+    <t>Erstellt am 13.11.2024</t>
+  </si>
+  <si>
+    <t>Abgenom. von</t>
+  </si>
+  <si>
+    <t>123456789</t>
   </si>
 </sst>
 </file>
@@ -254,16 +257,16 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -696,7 +699,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -727,6 +729,73 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -739,80 +808,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I177" sqref="I177"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,276 +1114,276 @@
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="29.25" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14" t="s">
+    <row r="1" spans="2:9" ht="24" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="16"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="20"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
+      <c r="B4" s="20"/>
       <c r="D4" s="7"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="18"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="2:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="G6" s="33" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="G6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
+      <c r="B9" s="20"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="51"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="G12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="51"/>
-      <c r="G12" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="I13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="47"/>
+      <c r="B14" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="40"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="G15" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="G16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="G17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="G15" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="G16" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="18" t="s">
+      <c r="I17" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="66"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="58"/>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="G17" s="27" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="P18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="63"/>
-    </row>
-    <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="61"/>
-    </row>
-    <row r="22" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="43"/>
+      <c r="I21" s="54"/>
+    </row>
+    <row r="22" spans="2:16" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1393,7 +1393,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1403,301 +1403,274 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="2:16" ht="29.25" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14" t="s">
+    <row r="24" spans="2:16" ht="24" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="16"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
+      <c r="B27" s="20"/>
       <c r="D27" s="7"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="18"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="2:16" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="G29" s="36" t="s">
+      <c r="C29" s="47"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="G29" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="20"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B31" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="35"/>
-    </row>
-    <row r="31" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B31" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="35"/>
+      <c r="B32" s="20"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
     </row>
     <row r="33" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="51"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
-    </row>
-    <row r="34" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="G35" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="35" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="51"/>
-      <c r="G35" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="41"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="I36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="47"/>
+      <c r="B37" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="40"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="G38" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="G39" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="G40" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="G38" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="G39" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="18" t="s">
+      <c r="I40" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="53"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="66"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="58"/>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="G40" s="27" t="s">
+      <c r="C44" s="43"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="F44" s="44"/>
+      <c r="G44" s="45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="45"/>
-    </row>
-    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="56"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="63"/>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="59"/>
-      <c r="G44" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="58"/>
-      <c r="I44" s="61"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="54"/>
     </row>
     <row r="45" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B15:E17"/>
     <mergeCell ref="B41:I41"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:E40"/>
@@ -1713,6 +1686,33 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B15:E17"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
